--- a/Public/report/excel/client_ywl_20160101_20160331.xlsx
+++ b/Public/report/excel/client_ywl_20160101_20160331.xlsx
@@ -1429,7 +1429,7 @@
         <v>9</v>
       </c>
       <c r="F18" s="2">
-        <v>175223.2</v>
+        <v>173423.2</v>
       </c>
       <c r="G18" s="1">
         <v>5</v>
